--- a/运维自动化课件/day04/文档/主机new.xlsx
+++ b/运维自动化课件/day04/文档/主机new.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28800" windowHeight="12640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId7"/>
+    <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -28,21 +31,19 @@
     <t>Excel 工作表名称</t>
   </si>
   <si>
-    <t>导出摘要</t>
+    <t>Sheet1</t>
   </si>
   <si>
     <t>表格 1</t>
-  </si>
-  <si>
-    <t>Sheet1</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>Sheet1</t>
     </r>
@@ -51,31 +52,9 @@
     <t>Sheet2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>Sheet2</t>
-    </r>
-  </si>
-  <si>
     <t>Sheet3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>Sheet3</t>
-    </r>
-  </si>
-  <si>
     <t>主机类别</t>
   </si>
   <si>
@@ -97,79 +76,237 @@
     <t>备注</t>
   </si>
   <si>
-    <t>api服务器</t>
+    <t>数据库服务</t>
   </si>
   <si>
     <t>iZ2ze1151k3ad6zbdp5z6d1</t>
   </si>
   <si>
-    <t>101.43.162.190</t>
+    <t>10.211.55.25</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>meg@314159</t>
+    <t>123456</t>
   </si>
   <si>
     <t>这是一条例子，请替换为自己的数据</t>
   </si>
   <si>
-    <t>数据库服务器</t>
-  </si>
-  <si>
     <t>iZ2ze1151k3ad6zbdp5z6d2</t>
   </si>
   <si>
+    <t>10.211.55.26</t>
+  </si>
+  <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>iZ2ze1151k3ad6zbdp5z6d3</t>
+  </si>
+  <si>
+    <t>10.211.55.27</t>
+  </si>
+  <si>
+    <t>123457</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="14"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="14"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,29 +315,230 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -224,37 +562,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="13"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -275,6 +586,26 @@
       <right style="thin">
         <color indexed="13"/>
       </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="13"/>
@@ -285,159 +616,454 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="005E88B1"/>
+      <rgbColor rgb="00EEF3F4"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,8 +1262,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -657,8 +1281,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -670,7 +1293,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -687,8 +1310,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,8 +1335,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,8 +1360,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,8 +1385,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,8 +1410,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -817,8 +1435,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -843,8 +1460,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,8 +1485,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,8 +1510,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,9 +1523,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -925,8 +1545,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -946,8 +1564,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,8 +1589,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,8 +1614,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,8 +1639,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,8 +1664,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,8 +1689,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,8 +1714,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,8 +1739,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,8 +1764,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,8 +1789,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,9 +1802,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1207,8 +1821,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1228,8 +1840,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1852,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1258,8 +1869,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,8 +1894,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,8 +1919,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,8 +1944,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,8 +1969,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,8 +1994,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,8 +2019,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,8 +2044,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,8 +2069,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1480,9 +2082,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1491,169 +2099,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="1" max="1" width="2" style="6" customWidth="1"/>
-    <col min="2" max="4" width="28" customWidth="1"/>
-    <col min="2" max="2" width="28" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s" s="13">
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s" s="14">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" ht="20.4" spans="1:5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="15">
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="17.6" spans="1:5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="18" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="17"/>
-      <c r="C10" t="s" s="18">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" t="s" s="3">
+      <c r="D14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1661,17 +2266,13 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'导出摘要'!R1C1" tooltip="" display="导出摘要"/>
-    <hyperlink ref="D10" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
-    <hyperlink ref="D12" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
-    <hyperlink ref="D14" location="'Sheet2'!R1C1" tooltip="" display="Sheet2"/>
-    <hyperlink ref="D16" location="'Sheet3'!R1C1" tooltip="" display="Sheet3"/>
-    <hyperlink ref="D12" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
-    <hyperlink ref="D14" location="'Sheet2'!R1C1" tooltip="" display="Sheet2"/>
-    <hyperlink ref="D16" location="'Sheet3'!R1C1" tooltip="" display="Sheet3"/>
+    <hyperlink ref="D10" location="'Sheet1'!R1C1" display="Sheet1"/>
+    <hyperlink ref="D12" location="'Sheet1'!R1C1" display="Sheet1"/>
+    <hyperlink ref="D14" location="'Sheet2'!R1C1" display="Sheet2"/>
+    <hyperlink ref="D16" location="'Sheet3'!R1C1" display="Sheet3"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1679,155 +2280,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="24.5" style="25" customWidth="1"/>
-    <col min="3" max="5" width="6" style="25" customWidth="1"/>
-    <col min="6" max="6" width="9.67188" style="25" customWidth="1"/>
-    <col min="7" max="7" width="6" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="6" style="25" customWidth="1"/>
+    <col min="1" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5178571428571" style="1" customWidth="1"/>
+    <col min="4" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4642857142857" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="26">
+    <row r="1" ht="14" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="26">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s" s="26">
+    </row>
+    <row r="2" ht="14" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s" s="26">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s" s="26">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" ht="14" customHeight="1">
-      <c r="A2" t="s" s="26">
+      <c r="D2" s="5">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="26">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="27">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28">
+    </row>
+    <row r="3" ht="14" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s" s="26">
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="26">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5">
         <v>23</v>
       </c>
-      <c r="G2" t="s" s="26">
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s" s="26">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s" s="27">
-        <v>21</v>
-      </c>
-      <c r="D3" s="28">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s" s="26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1835,90 +2453,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="6" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="6" style="30" customWidth="1"/>
+    <col min="1" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1926,90 +2546,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="6" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="6" style="31" customWidth="1"/>
+    <col min="1" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
